--- a/escolas/luiz setti/8A.xlsx
+++ b/escolas/luiz setti/8A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ACTTEENS\Automatização\escolas\luiz setti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\actteensprogram-automacao\escolas\luiz setti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0E957-6D25-4A47-AB98-CA2353EEDC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B80841-B9F3-4C7F-B46E-33F6E8D9FD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="3285" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -197,10 +197,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -521,7 +524,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,13 +535,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -546,305 +549,305 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>5514997391223</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>5514997391223</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>5543988622639</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>5543996644231</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8">
+      <c r="B5" s="5"/>
+      <c r="C5" s="9">
         <v>5543998337619</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
         <v>5543991157932</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
         <v>5543991562054</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>5543999535730</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>5543991555189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
         <v>5543996172896</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>5543999652247</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>5543996394417</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>5543991779301</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>5543996396965</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>5543996832404</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
         <v>5543996539302</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>5543999853823</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>5543998152528</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>5543998039025</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
         <v>5543998392959</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>5543999687260</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
         <v>5543984933455</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>5543988678491</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>5543996431967</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="7">
         <v>5543998488484</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="7">
         <v>5543999691025</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="7">
         <v>5543998644491</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>5543991145756</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
         <v>5543996688924</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="7">
         <v>5543988538329</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>5543988265339</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="7">
         <v>5543996197558</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>5543984230661</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7">
         <v>5543996227150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
         <v>5511950511974</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="7">
         <v>5543999691332</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="7">
         <v>5543999737024</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>5543999676238</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="7">
         <v>5543991193203</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>5543988242083</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7">
         <v>5543996606102</v>
       </c>
     </row>
